--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_005.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_005.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295016AA1.17) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Main turbine and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
-  </si>
-  <si>
-    <t>(295027EK2.02) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Components internal to the containment</t>
-  </si>
-  <si>
-    <t>(295031EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
-  </si>
-  <si>
-    <t>(295003AK2.07) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295035EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release</t>
-  </si>
-  <si>
-    <t>(295032EK2.06) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Area temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295007AA1.07) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Temperature monitoring</t>
-  </si>
-  <si>
-    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.02) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS bus power supply failure </t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(209001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray pressure</t>
-  </si>
-  <si>
-    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal suppression pool water level</t>
-  </si>
-  <si>
-    <t>(263000K4.06) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
-  </si>
-  <si>
-    <t>(218000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
-  </si>
-  <si>
-    <t>(400000A3.05) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOCA signal</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(261000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Secondary containment radiation/ contamination levels</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291008K1.05) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function of thermal overload protection device</t>
-  </si>
-  <si>
-    <t>(239002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) DC power</t>
-  </si>
-  <si>
-    <t>(203000K4.01) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation/injection</t>
-  </si>
-  <si>
-    <t>(259002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(215005A4.04) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) LPRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
-  </si>
-  <si>
-    <t>(212000A2.19) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Partial RPS actuation</t>
-  </si>
-  <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(209001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
-  </si>
-  <si>
-    <t>(202002K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff</t>
-  </si>
-  <si>
-    <t>(233000A4.02) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system valves</t>
-  </si>
-  <si>
-    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(201005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(230000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Pump cavitation/vortex</t>
-  </si>
-  <si>
-    <t>(239001K3.04) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Offgas system</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(290001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(202001K4.13) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) End-of-cycle recirculation pump trip</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t>(293006K1.22) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define or explain the following term or concept: Two-phase flow</t>
-  </si>
-  <si>
-    <t>(293009K1.29) CORE THERMAL LIMITS (CFR: 41.14) (THERMAL TIME CONSTANT) Define fuel thermal time constant</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(217000A2.16) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(209002A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201001A2.02) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(288000A2.07) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution system</t>
+    <t>(295024EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
+  </si>
+  <si>
+    <t>(700000AK2.09) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
+  </si>
+  <si>
+    <t>(295005AK2.04) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main turbine generator and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(295016AK2.15) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main turbine and auxiliaries</t>
+  </si>
+  <si>
+    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire\u2019s extent of potential operational damage to plant equipment</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(295037EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Bypassing rod insertion blocks</t>
+  </si>
+  <si>
+    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295013AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Surveillance testing</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA1.01) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell ventilation system</t>
+  </si>
+  <si>
+    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
+  </si>
+  <si>
+    <t>(500000EK2.05) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen and oxygen recombiners</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(205000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Service water</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(300000K3.19) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Main steam system</t>
+  </si>
+  <si>
+    <t>(218000A4.01) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS valves</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(215003A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(217000K4.04) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine trips</t>
+  </si>
+  <si>
+    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(211000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(209002A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291004K1.13) PUMPS (CFR: 41.3) (CENTRIFUGAL) Theory of operation of a centrifugal pump</t>
+  </si>
+  <si>
+    <t>(259002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
+  </si>
+  <si>
+    <t>(262001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Bus voltage</t>
+  </si>
+  <si>
+    <t>(261000K4.04) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Radioactive particulate filtration</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(264000K2.01) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Starting air compressor</t>
+  </si>
+  <si>
+    <t>(215005K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) TIP</t>
+  </si>
+  <si>
+    <t>(205000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(300000K3.06) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
+  </si>
+  <si>
+    <t>(290001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 SC) SECONDARY CONTAINMENT and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(204000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(239001A2.10) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Closure of one or more MSIVs at power</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (291005K1.07) MOTORS AND GENERATORS (CFR: 41.7) Electrical units: volts, amps, VARs, watts and hertz</t>
+  </si>
+  <si>
+    <t>(290003K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room radioactivity</t>
+  </si>
+  <si>
+    <t>(288000A4.01) Ability to manually operate and/or monitor the (SF9 PVS) PLANT VENTILATION SYSTEMS in the control room: (CFR: 41.4 / 41.7 / 45.5 to 45.8) Fans</t>
+  </si>
+  <si>
+    <t>(219000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.5 / 45.3) Heat exchanger operation</t>
+  </si>
+  <si>
+    <t>(216000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) RPV temperature</t>
+  </si>
+  <si>
+    <t>(233000K4.01) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Redundancy</t>
+  </si>
+  <si>
+    <t>(245000A3.01) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Turbine trip</t>
   </si>
   <si>
     <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292008K1.14) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe three parameters to be monitored and controlled during heatup</t>
+  </si>
+  <si>
+    <t>(292004K1.11) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of void coefficient from changes in the following: --Core void fraction</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295024EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber air-space temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295022AA2.01) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Accumulator pressure</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
+  </si>
+  <si>
+    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.07) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failed recorder</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(223002A2.09) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadvertent system initiation</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000A2.17) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant ventilation systems abnormal radiation levels </t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295037</t>
   </si>
   <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295036</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295012</t>
   </si>
   <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295009</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>268000</t>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
   <si>
     <t>201005</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>288000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
         <v>105</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D43" t="s">
         <v>112</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>105</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
         <v>105</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
         <v>112</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
